--- a/data/04_statistics/csv/billboard_by_item_fixations.xlsx
+++ b/data/04_statistics/csv/billboard_by_item_fixations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralfschmaelzle/Documents/GITHUB/nomcomm/PAPERS_WORKING/vr_billboard_paradigm/data/04_statistics/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AFDB00-7581-7047-8D72-091D2E0C9D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F74813-BA81-6547-B42F-11914C75ACBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{74C88401-2F87-EF43-934A-7E295E4C1537}"/>
   </bookViews>
@@ -236,9 +236,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.1006034829587907E-2"/>
+          <c:x val="4.7064428990171853E-2"/>
           <c:y val="4.6783625730994149E-2"/>
-          <c:w val="0.94563630093683548"/>
+          <c:w val="0.92957790677625163"/>
           <c:h val="0.75608164111065068"/>
         </c:manualLayout>
       </c:layout>
@@ -1502,16 +1502,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2510,7 +2510,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
